--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.8056179829237</v>
+        <v>243.223781648876</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.1767584037157</v>
+        <v>332.7895083277779</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.350064268423</v>
+        <v>301.0285447260822</v>
       </c>
       <c r="AD2" t="n">
-        <v>174805.6179829237</v>
+        <v>243223.781648876</v>
       </c>
       <c r="AE2" t="n">
-        <v>239176.7584037157</v>
+        <v>332789.5083277778</v>
       </c>
       <c r="AF2" t="n">
         <v>1.170446281233288e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>216350.064268423</v>
+        <v>301028.5447260822</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2490726582777</v>
+        <v>215.7003907131536</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.4726773815746</v>
+        <v>295.1307906032305</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.2444078210131</v>
+        <v>266.9639221668114</v>
       </c>
       <c r="AD3" t="n">
-        <v>147249.0726582777</v>
+        <v>215700.3907131536</v>
       </c>
       <c r="AE3" t="n">
-        <v>201472.6773815746</v>
+        <v>295130.7906032305</v>
       </c>
       <c r="AF3" t="n">
         <v>1.310066669030789e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182244.4078210131</v>
+        <v>266963.9221668114</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.6215829761223</v>
+        <v>213.6375580690657</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.9283153675303</v>
+        <v>292.3083319738376</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.6067357956817</v>
+        <v>264.4108350276612</v>
       </c>
       <c r="AD2" t="n">
-        <v>155621.5829761222</v>
+        <v>213637.5580690657</v>
       </c>
       <c r="AE2" t="n">
-        <v>212928.3153675303</v>
+        <v>292308.3319738376</v>
       </c>
       <c r="AF2" t="n">
         <v>1.387872270981926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.37268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>192606.7357956817</v>
+        <v>264410.8350276612</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.7725577229853</v>
+        <v>211.7885328159288</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.3983974429526</v>
+        <v>289.7784140492599</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.3182696870628</v>
+        <v>262.1223689190423</v>
       </c>
       <c r="AD3" t="n">
-        <v>153772.5577229853</v>
+        <v>211788.5328159288</v>
       </c>
       <c r="AE3" t="n">
-        <v>210398.3974429526</v>
+        <v>289778.4140492599</v>
       </c>
       <c r="AF3" t="n">
         <v>1.429922711624703e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>190318.2696870627</v>
+        <v>262122.3689190423</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2374682810853</v>
+        <v>234.0129913613348</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8757291633794</v>
+        <v>320.1868987049818</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0819753625954</v>
+        <v>289.628710477808</v>
       </c>
       <c r="AD2" t="n">
-        <v>159237.4682810853</v>
+        <v>234012.9913613348</v>
       </c>
       <c r="AE2" t="n">
-        <v>217875.7291633794</v>
+        <v>320186.8987049818</v>
       </c>
       <c r="AF2" t="n">
         <v>1.727475910203963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.87731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>197081.9753625954</v>
+        <v>289628.710477808</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.5305242746718</v>
+        <v>216.8743497552423</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.9625042505509</v>
+        <v>296.7370531560332</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.3057319151272</v>
+        <v>268.4168852759787</v>
       </c>
       <c r="AD2" t="n">
-        <v>150530.5242746718</v>
+        <v>216874.3497552423</v>
       </c>
       <c r="AE2" t="n">
-        <v>205962.504250551</v>
+        <v>296737.0531560332</v>
       </c>
       <c r="AF2" t="n">
         <v>1.618544011844261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.82407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>186305.7319151273</v>
+        <v>268416.8852759787</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.9961011664455</v>
+        <v>252.9045614693767</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9103623664779</v>
+        <v>346.0351783640438</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.5364611161447</v>
+        <v>313.0100666045058</v>
       </c>
       <c r="AD2" t="n">
-        <v>178996.1011664455</v>
+        <v>252904.5614693767</v>
       </c>
       <c r="AE2" t="n">
-        <v>244910.3623664779</v>
+        <v>346035.1783640438</v>
       </c>
       <c r="AF2" t="n">
         <v>1.780470658319509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>221536.4611161448</v>
+        <v>313010.0666045058</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.1096845783913</v>
+        <v>227.0380200513969</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.7008898639344</v>
+        <v>310.6434352447126</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.9238224805009</v>
+        <v>280.9960617758488</v>
       </c>
       <c r="AD2" t="n">
-        <v>159109.6845783913</v>
+        <v>227038.0200513969</v>
       </c>
       <c r="AE2" t="n">
-        <v>217700.8898639344</v>
+        <v>310643.4352447126</v>
       </c>
       <c r="AF2" t="n">
         <v>1.307431564286191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>196923.8224805009</v>
+        <v>280996.0617758489</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.7438862210611</v>
+        <v>212.9301386063165</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.7274119460082</v>
+        <v>291.3404094557604</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.5204449112307</v>
+        <v>263.5352896762213</v>
       </c>
       <c r="AD3" t="n">
-        <v>154743.8862210611</v>
+        <v>212930.1386063165</v>
       </c>
       <c r="AE3" t="n">
-        <v>211727.4119460082</v>
+        <v>291340.4094557604</v>
       </c>
       <c r="AF3" t="n">
         <v>1.394192106649118e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.02546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>191520.4449112307</v>
+        <v>263535.2896762213</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.7109436266859</v>
+        <v>272.3824434760638</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.5708825260588</v>
+        <v>372.685675829264</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.7978018078692</v>
+        <v>337.1170779957495</v>
       </c>
       <c r="AD2" t="n">
-        <v>189710.9436266859</v>
+        <v>272382.4434760638</v>
       </c>
       <c r="AE2" t="n">
-        <v>259570.8825260588</v>
+        <v>372685.675829264</v>
       </c>
       <c r="AF2" t="n">
         <v>1.790485544884642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.78240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>234797.8018078692</v>
+        <v>337117.0779957495</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.5990951777516</v>
+        <v>209.0624380716047</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.4245701021651</v>
+        <v>286.0484509532654</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.6282602538862</v>
+        <v>258.7483882658922</v>
       </c>
       <c r="AD2" t="n">
-        <v>151599.0951777516</v>
+        <v>209062.4380716047</v>
       </c>
       <c r="AE2" t="n">
-        <v>207424.5701021651</v>
+        <v>286048.4509532654</v>
       </c>
       <c r="AF2" t="n">
         <v>1.52757774437706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>187628.2602538862</v>
+        <v>258748.3882658923</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.0180550163415</v>
+        <v>210.857277809216</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.366053553413</v>
+        <v>288.5042298650047</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.3844512494366</v>
+        <v>260.9697910850034</v>
       </c>
       <c r="AD2" t="n">
-        <v>153018.0550163416</v>
+        <v>210857.277809216</v>
       </c>
       <c r="AE2" t="n">
-        <v>209366.053553413</v>
+        <v>288504.2298650047</v>
       </c>
       <c r="AF2" t="n">
         <v>1.458346531474827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189384.4512494366</v>
+        <v>260969.7910850034</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.1310192147798</v>
+        <v>210.9702420076543</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.5206161533448</v>
+        <v>288.6587924649365</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.524262611761</v>
+        <v>261.1096024473277</v>
       </c>
       <c r="AD3" t="n">
-        <v>153131.0192147798</v>
+        <v>210970.2420076543</v>
       </c>
       <c r="AE3" t="n">
-        <v>209520.6161533448</v>
+        <v>288658.7924649366</v>
       </c>
       <c r="AF3" t="n">
         <v>1.459077532242484e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>189524.262611761</v>
+        <v>261109.6024473277</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.0240899661193</v>
+        <v>230.567945437822</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3709490587704</v>
+        <v>315.4732348877343</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.9074760258711</v>
+        <v>285.3649121196085</v>
       </c>
       <c r="AD2" t="n">
-        <v>172024.0899661193</v>
+        <v>230567.945437822</v>
       </c>
       <c r="AE2" t="n">
-        <v>235370.9490587704</v>
+        <v>315473.2348877343</v>
       </c>
       <c r="AF2" t="n">
         <v>1.225538391345718e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>212907.4760258711</v>
+        <v>285364.9121196085</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1032980514647</v>
+        <v>214.3748120513005</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.9049780165257</v>
+        <v>293.3170753976808</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.826327483084</v>
+        <v>265.3233053949135</v>
       </c>
       <c r="AD3" t="n">
-        <v>146103.2980514647</v>
+        <v>214374.8120513005</v>
       </c>
       <c r="AE3" t="n">
-        <v>199904.9780165257</v>
+        <v>293317.0753976807</v>
       </c>
       <c r="AF3" t="n">
         <v>1.34529017713421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>180826.327483084</v>
+        <v>265323.3053949135</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.8245878020644</v>
+        <v>217.4286163077252</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.3648549418965</v>
+        <v>297.4954251056544</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.6696828211937</v>
+        <v>269.1028792711099</v>
       </c>
       <c r="AD2" t="n">
-        <v>150824.5878020644</v>
+        <v>217428.6163077251</v>
       </c>
       <c r="AE2" t="n">
-        <v>206364.8549418965</v>
+        <v>297495.4251056543</v>
       </c>
       <c r="AF2" t="n">
         <v>1.587858068949446e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>186669.6828211937</v>
+        <v>269102.8792711099</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2517308784362</v>
+        <v>224.9567792324778</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8952438782964</v>
+        <v>307.7957897384042</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0996276205097</v>
+        <v>278.420191559966</v>
       </c>
       <c r="AD2" t="n">
-        <v>159251.7308784362</v>
+        <v>224956.7792324778</v>
       </c>
       <c r="AE2" t="n">
-        <v>217895.2438782963</v>
+        <v>307795.7897384042</v>
       </c>
       <c r="AF2" t="n">
         <v>1.696471241997351e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.3912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>197099.6276205097</v>
+        <v>278420.191559966</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7266395591287</v>
+        <v>233.8010916749896</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.8592319386831</v>
+        <v>319.8969682057698</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8263508554888</v>
+        <v>289.3664505385208</v>
       </c>
       <c r="AD2" t="n">
-        <v>168726.6395591287</v>
+        <v>233801.0916749896</v>
       </c>
       <c r="AE2" t="n">
-        <v>230859.2319386831</v>
+        <v>319896.9682057698</v>
       </c>
       <c r="AF2" t="n">
         <v>1.764093698151625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.45601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>208826.3508554888</v>
+        <v>289366.4505385208</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.9233504616221</v>
+        <v>311.9990197570291</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.2770745518035</v>
+        <v>426.8908232568755</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.4281748052073</v>
+        <v>386.148962230272</v>
       </c>
       <c r="AD2" t="n">
-        <v>220923.3504616221</v>
+        <v>311999.0197570291</v>
       </c>
       <c r="AE2" t="n">
-        <v>302277.0745518035</v>
+        <v>426890.8232568755</v>
       </c>
       <c r="AF2" t="n">
         <v>1.751426954208787e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>273428.1748052073</v>
+        <v>386148.9622302721</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7193805765916</v>
+        <v>198.441991729894</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5384646057325</v>
+        <v>271.5170877275194</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1628637732481</v>
+        <v>245.6038779515105</v>
       </c>
       <c r="AD2" t="n">
-        <v>140719.3805765916</v>
+        <v>198441.991729894</v>
       </c>
       <c r="AE2" t="n">
-        <v>192538.4646057325</v>
+        <v>271517.0877275194</v>
       </c>
       <c r="AF2" t="n">
         <v>1.535658147708005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>174162.8637732481</v>
+        <v>245603.8779515105</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.3657776037708</v>
+        <v>228.4859137357085</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.4195317561712</v>
+        <v>312.6245072601479</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.4784396026721</v>
+        <v>282.7880630585837</v>
       </c>
       <c r="AD2" t="n">
-        <v>160365.7776037708</v>
+        <v>228485.9137357085</v>
       </c>
       <c r="AE2" t="n">
-        <v>219419.5317561711</v>
+        <v>312624.5072601479</v>
       </c>
       <c r="AF2" t="n">
         <v>1.269227695519234e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>198478.4396026721</v>
+        <v>282788.0630585837</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.5275721927793</v>
+        <v>213.6135429059363</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.1172444974405</v>
+        <v>292.2754733681696</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.1137741454692</v>
+        <v>264.3811124012009</v>
       </c>
       <c r="AD3" t="n">
-        <v>145527.5721927793</v>
+        <v>213613.5429059363</v>
       </c>
       <c r="AE3" t="n">
-        <v>199117.2444974405</v>
+        <v>292275.4733681696</v>
       </c>
       <c r="AF3" t="n">
         <v>1.369999580733477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>180113.7741454692</v>
+        <v>264381.1124012009</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.3526882713243</v>
+        <v>392.7042245031265</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.7496957960917</v>
+        <v>537.3152448528346</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.7932336008309</v>
+        <v>486.0346320107616</v>
       </c>
       <c r="AD2" t="n">
-        <v>275352.6882713243</v>
+        <v>392704.2245031265</v>
       </c>
       <c r="AE2" t="n">
-        <v>376749.6957960917</v>
+        <v>537315.2448528345</v>
       </c>
       <c r="AF2" t="n">
         <v>1.606034795900424e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.7337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>340793.233600831</v>
+        <v>486034.6320107616</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4150895607089</v>
+        <v>216.0405823348717</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.1187584342581</v>
+        <v>295.5962557882601</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3018102609552</v>
+        <v>267.3849640078664</v>
       </c>
       <c r="AD2" t="n">
-        <v>159415.0895607089</v>
+        <v>216040.5823348717</v>
       </c>
       <c r="AE2" t="n">
-        <v>218118.7584342581</v>
+        <v>295596.2557882601</v>
       </c>
       <c r="AF2" t="n">
         <v>1.662669968201746e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>197301.8102609552</v>
+        <v>267384.9640078664</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.5378657464234</v>
+        <v>208.8002336334514</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.3407932929701</v>
+        <v>285.6896912733407</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.5524789857792</v>
+        <v>258.4238681062972</v>
       </c>
       <c r="AD2" t="n">
-        <v>151537.8657464234</v>
+        <v>208800.2336334514</v>
       </c>
       <c r="AE2" t="n">
-        <v>207340.7932929701</v>
+        <v>285689.6912733407</v>
       </c>
       <c r="AF2" t="n">
         <v>1.548091881593752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>187552.4789857792</v>
+        <v>258423.8681062972</v>
       </c>
     </row>
   </sheetData>
